--- a/data/tax_shotgun_metaphlan/shotgun_decoder.xlsx
+++ b/data/tax_shotgun_metaphlan/shotgun_decoder.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6260" yWindow="0" windowWidth="25040" windowHeight="17820" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="1260" yWindow="1380" windowWidth="25360" windowHeight="15280" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="plate" sheetId="1" r:id="rId1"/>
     <sheet name="primers" sheetId="2" r:id="rId2"/>
     <sheet name="key" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="422">
   <si>
     <t>A</t>
   </si>
@@ -353,137 +354,947 @@
     <t>reverse</t>
   </si>
   <si>
-    <t>AAGAGGCA.AGAGGATA_S83</t>
-  </si>
-  <si>
-    <t>AAGAGGCA.ATAGAGAG_S82</t>
-  </si>
-  <si>
-    <t>AAGAGGCA.CTCCTTAC_S85</t>
-  </si>
-  <si>
-    <t>AGGCAGAA.AGAGGATA_S19</t>
-  </si>
-  <si>
-    <t>AGGCAGAA.ATAGAGAG_S18</t>
-  </si>
-  <si>
-    <t>AGGCAGAA.CTCCTTAC_S21</t>
-  </si>
-  <si>
-    <t>AGGCAGAA.TACTCCTT_S23</t>
-  </si>
-  <si>
-    <t>AGGCAGAA.TATGCAGT_S22</t>
-  </si>
-  <si>
-    <t>CGAGGCTG.ATAGAGAG_S74</t>
-  </si>
-  <si>
-    <t>CGAGGCTG.CTCCTTAC_S77</t>
-  </si>
-  <si>
-    <t>CGTACTAG.AGAGGATA_S11</t>
-  </si>
-  <si>
-    <t>CGTACTAG.ATAGAGAG_S10</t>
-  </si>
-  <si>
-    <t>CGTACTAG.CTCCTTAC_S13</t>
-  </si>
-  <si>
-    <t>CGTACTAG.TACTCCTT_S15</t>
-  </si>
-  <si>
-    <t>CGTACTAG.TATGCAGT_S14</t>
-  </si>
-  <si>
-    <t>CTCTCTAC.AGAGGATA_S51</t>
-  </si>
-  <si>
-    <t>CTCTCTAC.ATAGAGAG_S50</t>
-  </si>
-  <si>
-    <t>CTCTCTAC.CTCCTTAC_S53</t>
-  </si>
-  <si>
-    <t>CTCTCTAC.TATGCAGT_S54</t>
-  </si>
-  <si>
-    <t>GGACTCCT.AGAGGATA_S35</t>
-  </si>
-  <si>
-    <t>GGACTCCT.CTCCTTAC_S37</t>
-  </si>
-  <si>
-    <t>GGACTCCT.TACTCCTT_S39</t>
-  </si>
-  <si>
-    <t>GGACTCCT.TATGCAGT_S38</t>
-  </si>
-  <si>
-    <t>GTAGAGGA.AGAGGATA_S91</t>
-  </si>
-  <si>
-    <t>GTAGAGGA.ATAGAGAG_S90</t>
-  </si>
-  <si>
-    <t>GTAGAGGA.CTCCTTAC_S93</t>
-  </si>
-  <si>
-    <t>GTAGAGGA.TATGCAGT_S94</t>
-  </si>
-  <si>
-    <t>TAAGGCGA.AGAGGATA_S3</t>
-  </si>
-  <si>
-    <t>TAAGGCGA.ATAGAGAG_S2</t>
-  </si>
-  <si>
-    <t>TAAGGCGA.CTCCTTAC_S5</t>
-  </si>
-  <si>
-    <t>TAAGGCGA.TACTCCTT_S7</t>
-  </si>
-  <si>
-    <t>TAAGGCGA.TATGCAGT_S6</t>
-  </si>
-  <si>
-    <t>TAGGCATG.AGAGGATA_S43</t>
-  </si>
-  <si>
-    <t>TAGGCATG.ATAGAGAG_S42</t>
-  </si>
-  <si>
-    <t>TAGGCATG.TATGCAGT_S46</t>
-  </si>
-  <si>
-    <t>TCCTGAGC.AGAGGATA_S27</t>
-  </si>
-  <si>
-    <t>TCCTGAGC.ATAGAGAG_S26</t>
-  </si>
-  <si>
-    <t>TCCTGAGC.CTCCTTAC_S29</t>
-  </si>
-  <si>
-    <t>TCCTGAGC.TACTCCTT_S31</t>
-  </si>
-  <si>
-    <t>TCCTGAGC.TATGCAGT_S30</t>
-  </si>
-  <si>
     <t>sample name</t>
   </si>
   <si>
     <t>dual reverse</t>
+  </si>
+  <si>
+    <t>Undetermined_S0</t>
+  </si>
+  <si>
+    <t>120a2</t>
+  </si>
+  <si>
+    <t>s2401</t>
+  </si>
+  <si>
+    <t>ONLY REaGENTs</t>
+  </si>
+  <si>
+    <t>h2411</t>
+  </si>
+  <si>
+    <t>120a2.2</t>
+  </si>
+  <si>
+    <t>h2412.2</t>
+  </si>
+  <si>
+    <t>120a1</t>
+  </si>
+  <si>
+    <t>120e1</t>
+  </si>
+  <si>
+    <t>125a1.2</t>
+  </si>
+  <si>
+    <t>131a1</t>
+  </si>
+  <si>
+    <t>304a1</t>
+  </si>
+  <si>
+    <t>125c1</t>
+  </si>
+  <si>
+    <t>330a1</t>
+  </si>
+  <si>
+    <t>s2301</t>
+  </si>
+  <si>
+    <t>h2412</t>
+  </si>
+  <si>
+    <t>308a1</t>
+  </si>
+  <si>
+    <t>b401</t>
+  </si>
+  <si>
+    <t>304b1</t>
+  </si>
+  <si>
+    <t>s2101</t>
+  </si>
+  <si>
+    <t>s2101.2</t>
+  </si>
+  <si>
+    <t>120a1.2</t>
+  </si>
+  <si>
+    <t>AAGAGGCA-AGAGGATA_S42</t>
+  </si>
+  <si>
+    <t>AAGAGGCA-ATAGAGAG_S41</t>
+  </si>
+  <si>
+    <t>AAGAGGCA-CTCCTTAC_S43</t>
+  </si>
+  <si>
+    <t>AAGAGGCA-TACTCCTT_S45</t>
+  </si>
+  <si>
+    <t>AAGAGGCA-TATGCAGT_S44</t>
+  </si>
+  <si>
+    <t>AGGCAGAA-AGAGGATA_S12</t>
+  </si>
+  <si>
+    <t>AGGCAGAA-ATAGAGAG_S11</t>
+  </si>
+  <si>
+    <t>AGGCAGAA-CTCCTTAC_S13</t>
+  </si>
+  <si>
+    <t>AGGCAGAA-TACTCCTT_S15</t>
+  </si>
+  <si>
+    <t>AGGCAGAA-TATGCAGT_S14</t>
+  </si>
+  <si>
+    <t>ATCTCAGG-AGAGGATA_S57</t>
+  </si>
+  <si>
+    <t>ATCTCAGG-ATAGAGAG_S56</t>
+  </si>
+  <si>
+    <t>ATCTCAGG-CTCCTTAC_S58</t>
+  </si>
+  <si>
+    <t>ATCTCAGG-TACTCCTT_S60</t>
+  </si>
+  <si>
+    <t>ATCTCAGG-TATGCAGT_S59</t>
+  </si>
+  <si>
+    <t>CGAGGCTG-AGAGGATA_S37</t>
+  </si>
+  <si>
+    <t>CGAGGCTG-ATAGAGAG_S36</t>
+  </si>
+  <si>
+    <t>CGAGGCTG-CTCCTTAC_S38</t>
+  </si>
+  <si>
+    <t>CGAGGCTG-TACTCCTT_S40</t>
+  </si>
+  <si>
+    <t>CGAGGCTG-TATGCAGT_S39</t>
+  </si>
+  <si>
+    <t>CGTACTAG-AGAGGATA_S7</t>
+  </si>
+  <si>
+    <t>CGTACTAG-ATAGAGAG_S6</t>
+  </si>
+  <si>
+    <t>CGTACTAG-CTCCTTAC_S8</t>
+  </si>
+  <si>
+    <t>CGTACTAG-TACTCCTT_S10</t>
+  </si>
+  <si>
+    <t>CGTACTAG-TATGCAGT_S9</t>
+  </si>
+  <si>
+    <t>CTCTCTAC-AGAGGATA_S32</t>
+  </si>
+  <si>
+    <t>CTCTCTAC-ATAGAGAG_S31</t>
+  </si>
+  <si>
+    <t>CTCTCTAC-CTCCTTAC_S33</t>
+  </si>
+  <si>
+    <t>CTCTCTAC-TACTCCTT_S35</t>
+  </si>
+  <si>
+    <t>CTCTCTAC-TATGCAGT_S34</t>
+  </si>
+  <si>
+    <t>GCTCATGA-AGAGGATA_S52</t>
+  </si>
+  <si>
+    <t>GCTCATGA-ATAGAGAG_S51</t>
+  </si>
+  <si>
+    <t>GCTCATGA-CTCCTTAC_S53</t>
+  </si>
+  <si>
+    <t>GCTCATGA-TACTCCTT_S55</t>
+  </si>
+  <si>
+    <t>GCTCATGA-TATGCAGT_S54</t>
+  </si>
+  <si>
+    <t>GGACTCCT-AGAGGATA_S22</t>
+  </si>
+  <si>
+    <t>GGACTCCT-ATAGAGAG_S21</t>
+  </si>
+  <si>
+    <t>GGACTCCT-CTCCTTAC_S23</t>
+  </si>
+  <si>
+    <t>GGACTCCT-TACTCCTT_S25</t>
+  </si>
+  <si>
+    <t>GGACTCCT-TATGCAGT_S24</t>
+  </si>
+  <si>
+    <t>GTAGAGGA-AGAGGATA_S47</t>
+  </si>
+  <si>
+    <t>GTAGAGGA-ATAGAGAG_S46</t>
+  </si>
+  <si>
+    <t>GTAGAGGA-CTCCTTAC_S48</t>
+  </si>
+  <si>
+    <t>GTAGAGGA-TACTCCTT_S50</t>
+  </si>
+  <si>
+    <t>GTAGAGGA-TATGCAGT_S49</t>
+  </si>
+  <si>
+    <t>TAAGGCGA-AGAGGATA_S2</t>
+  </si>
+  <si>
+    <t>TAAGGCGA-ATAGAGAG_S1</t>
+  </si>
+  <si>
+    <t>TAAGGCGA-CTCCTTAC_S3</t>
+  </si>
+  <si>
+    <t>TAAGGCGA-TACTCCTT_S5</t>
+  </si>
+  <si>
+    <t>TAAGGCGA-TATGCAGT_S4</t>
+  </si>
+  <si>
+    <t>TAGGCATG-AGAGGATA_S27</t>
+  </si>
+  <si>
+    <t>TAGGCATG-ATAGAGAG_S26</t>
+  </si>
+  <si>
+    <t>TAGGCATG-CTCCTTAC_S28</t>
+  </si>
+  <si>
+    <t>TAGGCATG-TACTCCTT_S30</t>
+  </si>
+  <si>
+    <t>TAGGCATG-TATGCAGT_S29</t>
+  </si>
+  <si>
+    <t>TCCTGAGC-AGAGGATA_S17</t>
+  </si>
+  <si>
+    <t>TCCTGAGC-ATAGAGAG_S16</t>
+  </si>
+  <si>
+    <t>TCCTGAGC-CTCCTTAC_S18</t>
+  </si>
+  <si>
+    <t>TCCTGAGC-TACTCCTT_S20</t>
+  </si>
+  <si>
+    <t>TCCTGAGC-TATGCAGT_S19</t>
+  </si>
+  <si>
+    <t>AGGCAGAA-GCGATCTA_S17</t>
+  </si>
+  <si>
+    <t>CTCTCTAC-TACTCCTT_S55</t>
+  </si>
+  <si>
+    <t>TAGGCATG-TACTCCTT_S47</t>
+  </si>
+  <si>
+    <t>AGGCAGAA-TATGCAGT_S22</t>
+  </si>
+  <si>
+    <t>GCTACGCT-AGAGGATA_S67</t>
+  </si>
+  <si>
+    <t>TAAGGCGA-AGGCTTAG_S8</t>
+  </si>
+  <si>
+    <t>AAGAGGCA-TACTCCTT_S87</t>
+  </si>
+  <si>
+    <t>CAGAGAGG-AGAGGATA_S59</t>
+  </si>
+  <si>
+    <t>AGGCAGAA-CTCCTTAC_S21</t>
+  </si>
+  <si>
+    <t>AAGAGGCA-AGAGGATA_S83</t>
+  </si>
+  <si>
+    <t>GCTACGCT-GCGATCTA_S65</t>
+  </si>
+  <si>
+    <t>TCCTGAGC-GCGATCTA_S25</t>
+  </si>
+  <si>
+    <t>CGAGGCTG-AGGCTTAG_S80</t>
+  </si>
+  <si>
+    <t>CTCTCTAC-TATGCAGT_S54</t>
+  </si>
+  <si>
+    <t>CTCTCTAC-AGGCTTAG_S56</t>
+  </si>
+  <si>
+    <t>AAGAGGCA-TATGCAGT_S86</t>
+  </si>
+  <si>
+    <t>TAGGCATG-GCGATCTA_S41</t>
+  </si>
+  <si>
+    <t>AGGCAGAA-TCTACTCT_S20</t>
+  </si>
+  <si>
+    <t>GCTACGCT-ATAGAGAG_S66</t>
+  </si>
+  <si>
+    <t>CTCTCTAC-TCTACTCT_S52</t>
+  </si>
+  <si>
+    <t>TAGGCATG-AGAGGATA_S43</t>
+  </si>
+  <si>
+    <t>CGTACTAG-AGAGGATA_S11</t>
+  </si>
+  <si>
+    <t>GCTACGCT-TATGCAGT_S70</t>
+  </si>
+  <si>
+    <t>GGACTCCT-TACTCCTT_S39</t>
+  </si>
+  <si>
+    <t>TAAGGCGA-CTCCTTAC_S5</t>
+  </si>
+  <si>
+    <t>TAGGCATG-TCTACTCT_S44</t>
+  </si>
+  <si>
+    <t>GGACTCCT-TATGCAGT_S38</t>
+  </si>
+  <si>
+    <t>GGACTCCT-AGAGGATA_S35</t>
+  </si>
+  <si>
+    <t>GTAGAGGA-AGGCTTAG_S96</t>
+  </si>
+  <si>
+    <t>GGACTCCT-GCGATCTA_S33</t>
+  </si>
+  <si>
+    <t>CGTACTAG-ATAGAGAG_S10</t>
+  </si>
+  <si>
+    <t>CAGAGAGG-TATGCAGT_S62</t>
+  </si>
+  <si>
+    <t>TAAGGCGA-GCGATCTA_S1</t>
+  </si>
+  <si>
+    <t>CGTACTAG-GCGATCTA_S9</t>
+  </si>
+  <si>
+    <t>CAGAGAGG-ATAGAGAG_S58</t>
+  </si>
+  <si>
+    <t>TAAGGCGA-TACTCCTT_S7</t>
+  </si>
+  <si>
+    <t>GTAGAGGA-GCGATCTA_S89</t>
+  </si>
+  <si>
+    <t>GTAGAGGA-TATGCAGT_S94</t>
+  </si>
+  <si>
+    <t>TCCTGAGC-AGGCTTAG_S32</t>
+  </si>
+  <si>
+    <t>CGTACTAG-AGGCTTAG_S16</t>
+  </si>
+  <si>
+    <t>GGACTCCT-CTCCTTAC_S37</t>
+  </si>
+  <si>
+    <t>TAAGGCGA-AGAGGATA_S3</t>
+  </si>
+  <si>
+    <t>CTCTCTAC-GCGATCTA_S49</t>
+  </si>
+  <si>
+    <t>TAAGGCGA-TATGCAGT_S6</t>
+  </si>
+  <si>
+    <t>GGACTCCT-TCTACTCT_S36</t>
+  </si>
+  <si>
+    <t>CGAGGCTG-TCTACTCT_S76</t>
+  </si>
+  <si>
+    <t>CGTACTAG-TCTACTCT_S12</t>
+  </si>
+  <si>
+    <t>AGGCAGAA-AGGCTTAG_S24</t>
+  </si>
+  <si>
+    <t>CGAGGCTG-CTCCTTAC_S77</t>
+  </si>
+  <si>
+    <t>CGAGGCTG-ATAGAGAG_S74</t>
+  </si>
+  <si>
+    <t>CGAGGCTG-TACTCCTT_S79</t>
+  </si>
+  <si>
+    <t>CGTACTAG-TACTCCTT_S15</t>
+  </si>
+  <si>
+    <t>TAAGGCGA-ATAGAGAG_S2</t>
+  </si>
+  <si>
+    <t>TCCTGAGC-TCTACTCT_S28</t>
+  </si>
+  <si>
+    <t>AGGCAGAA-ATAGAGAG_S18</t>
+  </si>
+  <si>
+    <t>CGAGGCTG-GCGATCTA_S73</t>
+  </si>
+  <si>
+    <t>CTCTCTAC-AGAGGATA_S51</t>
+  </si>
+  <si>
+    <t>GTAGAGGA-AGAGGATA_S91</t>
+  </si>
+  <si>
+    <t>TCCTGAGC-TATGCAGT_S30</t>
+  </si>
+  <si>
+    <t>GTAGAGGA-ATAGAGAG_S90</t>
+  </si>
+  <si>
+    <t>CTCTCTAC-CTCCTTAC_S53</t>
+  </si>
+  <si>
+    <t>GTAGAGGA-TACTCCTT_S95</t>
+  </si>
+  <si>
+    <t>AAGAGGCA-CTCCTTAC_S85</t>
+  </si>
+  <si>
+    <t>TAGGCATG-CTCCTTAC_S45</t>
+  </si>
+  <si>
+    <t>TAGGCATG-TATGCAGT_S46</t>
+  </si>
+  <si>
+    <t>GTAGAGGA-CTCCTTAC_S93</t>
+  </si>
+  <si>
+    <t>GGACTCCT-ATAGAGAG_S34</t>
+  </si>
+  <si>
+    <t>AAGAGGCA-ATAGAGAG_S82</t>
+  </si>
+  <si>
+    <t>CGTACTAG-TATGCAGT_S14</t>
+  </si>
+  <si>
+    <t>CGAGGCTG-TATGCAGT_S78</t>
+  </si>
+  <si>
+    <t>GGACTCCT-AGGCTTAG_S40</t>
+  </si>
+  <si>
+    <t>CGTACTAG-CTCCTTAC_S13</t>
+  </si>
+  <si>
+    <t>TAGGCATG-AGGCTTAG_S48</t>
+  </si>
+  <si>
+    <t>CAGAGAGG-CTCCTTAC_S61</t>
+  </si>
+  <si>
+    <t>TCCTGAGC-ATAGAGAG_S26</t>
+  </si>
+  <si>
+    <t>CGAGGCTG-AGAGGATA_S75</t>
+  </si>
+  <si>
+    <t>CAGAGAGG-TACTCCTT_S63</t>
+  </si>
+  <si>
+    <t>AAGAGGCA-TCTACTCT_S84</t>
+  </si>
+  <si>
+    <t>TCCTGAGC-AGAGGATA_S27</t>
+  </si>
+  <si>
+    <t>GTAGAGGA-TCTACTCT_S92</t>
+  </si>
+  <si>
+    <t>AAGAGGCA-AGGCTTAG_S88</t>
+  </si>
+  <si>
+    <t>TAAGGCGA-TCTACTCT_S4</t>
+  </si>
+  <si>
+    <t>CAGAGAGG-GCGATCTA_S57</t>
+  </si>
+  <si>
+    <t>AAGAGGCA-GCGATCTA_S81</t>
+  </si>
+  <si>
+    <t>TAGGCATG-ATAGAGAG_S42</t>
+  </si>
+  <si>
+    <t>CAGAGAGG-TCTACTCT_S60</t>
+  </si>
+  <si>
+    <t>GCTACGCT-CTCCTTAC_S69</t>
+  </si>
+  <si>
+    <t>CTCTCTAC-ATAGAGAG_S50</t>
+  </si>
+  <si>
+    <t>AGGCAGAA-AGAGGATA_S19</t>
+  </si>
+  <si>
+    <t>TCCTGAGC-TACTCCTT_S31</t>
+  </si>
+  <si>
+    <t>GCTACGCT-TCTACTCT_S68</t>
+  </si>
+  <si>
+    <t>AGGCAGAA-TACTCCTT_S23</t>
+  </si>
+  <si>
+    <t>TCCTGAGC-CTCCTTAC_S29</t>
+  </si>
+  <si>
+    <t>#SampleID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>TAAGGCGA-ATAGAGAG</t>
+  </si>
+  <si>
+    <t>TAAGGCGA-AGAGGATA</t>
+  </si>
+  <si>
+    <t>TAAGGCGA-CTCCTTAC</t>
+  </si>
+  <si>
+    <t>TAAGGCGA-TATGCAGT</t>
+  </si>
+  <si>
+    <t>TAAGGCGA-TACTCCTT</t>
+  </si>
+  <si>
+    <t>CGTACTAG-ATAGAGAG</t>
+  </si>
+  <si>
+    <t>CGTACTAG-AGAGGATA</t>
+  </si>
+  <si>
+    <t>CGTACTAG-CTCCTTAC</t>
+  </si>
+  <si>
+    <t>CGTACTAG-TATGCAGT</t>
+  </si>
+  <si>
+    <t>CGTACTAG-TACTCCTT</t>
+  </si>
+  <si>
+    <t>AGGCAGAA-ATAGAGAG</t>
+  </si>
+  <si>
+    <t>AGGCAGAA-AGAGGATA</t>
+  </si>
+  <si>
+    <t>AGGCAGAA-CTCCTTAC</t>
+  </si>
+  <si>
+    <t>AGGCAGAA-TATGCAGT</t>
+  </si>
+  <si>
+    <t>AGGCAGAA-TACTCCTT</t>
+  </si>
+  <si>
+    <t>TCCTGAGC-ATAGAGAG</t>
+  </si>
+  <si>
+    <t>TCCTGAGC-AGAGGATA</t>
+  </si>
+  <si>
+    <t>TCCTGAGC-CTCCTTAC</t>
+  </si>
+  <si>
+    <t>TCCTGAGC-TATGCAGT</t>
+  </si>
+  <si>
+    <t>TCCTGAGC-TACTCCTT</t>
+  </si>
+  <si>
+    <t>GGACTCCT-ATAGAGAG</t>
+  </si>
+  <si>
+    <t>NO_SAMPLE1</t>
+  </si>
+  <si>
+    <t>GGACTCCT-AGAGGATA</t>
+  </si>
+  <si>
+    <t>GGACTCCT-CTCCTTAC</t>
+  </si>
+  <si>
+    <t>GGACTCCT-TATGCAGT</t>
+  </si>
+  <si>
+    <t>GGACTCCT-TACTCCTT</t>
+  </si>
+  <si>
+    <t>ONLY_REAGENTS1</t>
+  </si>
+  <si>
+    <t>TAGGCATG-ATAGAGAG</t>
+  </si>
+  <si>
+    <t>TAGGCATG-AGAGGATA</t>
+  </si>
+  <si>
+    <t>TAGGCATG-CTCCTTAC</t>
+  </si>
+  <si>
+    <t>TAGGCATG-TATGCAGT</t>
+  </si>
+  <si>
+    <t>TAGGCATG-TACTCCTT</t>
+  </si>
+  <si>
+    <t>219_2_DILUTED1-10</t>
+  </si>
+  <si>
+    <t>CTCTCTAC-ATAGAGAG</t>
+  </si>
+  <si>
+    <t>CTCTCTAC-AGAGGATA</t>
+  </si>
+  <si>
+    <t>CTCTCTAC-CTCCTTAC</t>
+  </si>
+  <si>
+    <t>CTCTCTAC-TATGCAGT</t>
+  </si>
+  <si>
+    <t>CTCTCTAC-TACTCCTT</t>
+  </si>
+  <si>
+    <t>blank1</t>
+  </si>
+  <si>
+    <t>CGAGGCTG-ATAGAGAG</t>
+  </si>
+  <si>
+    <t>CGAGGCTG-AGAGGATA</t>
+  </si>
+  <si>
+    <t>NO_SAMPLE2</t>
+  </si>
+  <si>
+    <t>CGAGGCTG-CTCCTTAC</t>
+  </si>
+  <si>
+    <t>CGAGGCTG-TATGCAGT</t>
+  </si>
+  <si>
+    <t>CGAGGCTG-TACTCCTT</t>
+  </si>
+  <si>
+    <t>blank2</t>
+  </si>
+  <si>
+    <t>AAGAGGCA-ATAGAGAG</t>
+  </si>
+  <si>
+    <t>AAGAGGCA-AGAGGATA</t>
+  </si>
+  <si>
+    <t>AAGAGGCA-CTCCTTAC</t>
+  </si>
+  <si>
+    <t>AAGAGGCA-TATGCAGT</t>
+  </si>
+  <si>
+    <t>AAGAGGCA-TACTCCTT</t>
+  </si>
+  <si>
+    <t>blank3</t>
+  </si>
+  <si>
+    <t>GTAGAGGA-ATAGAGAG</t>
+  </si>
+  <si>
+    <t>GTAGAGGA-AGAGGATA</t>
+  </si>
+  <si>
+    <t>GTAGAGGA-CTCCTTAC</t>
+  </si>
+  <si>
+    <t>GTAGAGGA-TATGCAGT</t>
+  </si>
+  <si>
+    <t>GTAGAGGA-TACTCCTT</t>
+  </si>
+  <si>
+    <t>blank4</t>
+  </si>
+  <si>
+    <t>GCTCATGA-ATAGAGAG</t>
+  </si>
+  <si>
+    <t>NO_SAMPLE3</t>
+  </si>
+  <si>
+    <t>GCTCATGA-AGAGGATA</t>
+  </si>
+  <si>
+    <t>NO_SAMPLE4</t>
+  </si>
+  <si>
+    <t>GCTCATGA-CTCCTTAC</t>
+  </si>
+  <si>
+    <t>GCTCATGA-TATGCAGT</t>
+  </si>
+  <si>
+    <t>GCTCATGA-TACTCCTT</t>
+  </si>
+  <si>
+    <t>blank5</t>
+  </si>
+  <si>
+    <t>ATCTCAGG-ATAGAGAG</t>
+  </si>
+  <si>
+    <t>ATCTCAGG-AGAGGATA</t>
+  </si>
+  <si>
+    <t>ATCTCAGG-CTCCTTAC</t>
+  </si>
+  <si>
+    <t>blank6</t>
+  </si>
+  <si>
+    <t>ATCTCAGG-TATGCAGT</t>
+  </si>
+  <si>
+    <t>ATCTCAGG-TACTCCTT</t>
+  </si>
+  <si>
+    <t>blank7</t>
+  </si>
+  <si>
+    <t>_1401</t>
+  </si>
+  <si>
+    <t>_120A1</t>
+  </si>
+  <si>
+    <t>_1202</t>
+  </si>
+  <si>
+    <t>_2191</t>
+  </si>
+  <si>
+    <t>_120A2.2</t>
+  </si>
+  <si>
+    <t>_3441</t>
+  </si>
+  <si>
+    <t>_s2401</t>
+  </si>
+  <si>
+    <t>_3461</t>
+  </si>
+  <si>
+    <t>_308A1</t>
+  </si>
+  <si>
+    <t>_125A1.2</t>
+  </si>
+  <si>
+    <t>_131A1</t>
+  </si>
+  <si>
+    <t>_s2101</t>
+  </si>
+  <si>
+    <t>_120A2</t>
+  </si>
+  <si>
+    <t>_2181</t>
+  </si>
+  <si>
+    <t>_120A1.2</t>
+  </si>
+  <si>
+    <t>_B401</t>
+  </si>
+  <si>
+    <t>_304B1</t>
+  </si>
+  <si>
+    <t>_3041</t>
+  </si>
+  <si>
+    <t>_2461</t>
+  </si>
+  <si>
+    <t>_S2101.2</t>
+  </si>
+  <si>
+    <t>_NOSAMPLE1</t>
+  </si>
+  <si>
+    <t>_H2411</t>
+  </si>
+  <si>
+    <t>_3081</t>
+  </si>
+  <si>
+    <t>_2202</t>
+  </si>
+  <si>
+    <t>_ONLYREAGENTS1</t>
+  </si>
+  <si>
+    <t>_2201</t>
+  </si>
+  <si>
+    <t>_1252</t>
+  </si>
+  <si>
+    <t>_2431</t>
+  </si>
+  <si>
+    <t>_S2301</t>
+  </si>
+  <si>
+    <t>_2192DILUTED1-10</t>
+  </si>
+  <si>
+    <t>_1402</t>
+  </si>
+  <si>
+    <t>_3462</t>
+  </si>
+  <si>
+    <t>_125C1</t>
+  </si>
+  <si>
+    <t>_3182</t>
+  </si>
+  <si>
+    <t>_blank1</t>
+  </si>
+  <si>
+    <t>_1403</t>
+  </si>
+  <si>
+    <t>_NOSAMPLE2</t>
+  </si>
+  <si>
+    <t>_120E1</t>
+  </si>
+  <si>
+    <t>_3031</t>
+  </si>
+  <si>
+    <t>_blank2</t>
+  </si>
+  <si>
+    <t>_3181</t>
+  </si>
+  <si>
+    <t>_3082</t>
+  </si>
+  <si>
+    <t>_330A1</t>
+  </si>
+  <si>
+    <t>_3301.2</t>
+  </si>
+  <si>
+    <t>_blank3</t>
+  </si>
+  <si>
+    <t>_2422</t>
+  </si>
+  <si>
+    <t>_304A1</t>
+  </si>
+  <si>
+    <t>_H2412</t>
+  </si>
+  <si>
+    <t>_H2412.2</t>
+  </si>
+  <si>
+    <t>_blank4</t>
+  </si>
+  <si>
+    <t>_NOSAMPLE3</t>
+  </si>
+  <si>
+    <t>_NOSAMPLE4</t>
+  </si>
+  <si>
+    <t>_2451</t>
+  </si>
+  <si>
+    <t>_1402.2</t>
+  </si>
+  <si>
+    <t>_blank5</t>
+  </si>
+  <si>
+    <t>_1251</t>
+  </si>
+  <si>
+    <t>_2421</t>
+  </si>
+  <si>
+    <t>_blank6</t>
+  </si>
+  <si>
+    <t>_1404.2</t>
+  </si>
+  <si>
+    <t>_blank7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -507,6 +1318,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -525,7 +1343,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -557,11 +1375,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="51">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -577,6 +1416,16 @@
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -592,6 +1441,16 @@
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -923,14 +1782,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -947,10 +1805,10 @@
         <v>109</v>
       </c>
       <c r="E1" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="F1" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2373,336 +3231,5431 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B41"/>
+  <dimension ref="A2:J95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>203</v>
       </c>
       <c r="B2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="str">
+        <f>LEFT(A2,17)</f>
+        <v>AAGAGGCA-AGAGGATA</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2">
+        <v>3082</v>
+      </c>
+      <c r="H2" t="str">
+        <f>LEFT(J2,17)</f>
+        <v>AAGAGGCA-AGAGGATA</v>
+      </c>
+      <c r="I2" t="str">
+        <f>VLOOKUP(H2,$C$2:$D$41,2,FALSE)</f>
+        <v>308_2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>261</v>
       </c>
       <c r="B3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C66" si="0">LEFT(A3,17)</f>
+        <v>AAGAGGCA-ATAGAGAG</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H62" si="1">LEFT(J3,17)</f>
+        <v>AAGAGGCA-ATAGAGAG</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I62" si="2">VLOOKUP(H3,$C$2:$D$41,2,FALSE)</f>
+        <v>318_1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>256</v>
       </c>
       <c r="B4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>AAGAGGCA-CTCCTTAC</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F4">
+        <v>3181</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="1"/>
+        <v>AAGAGGCA-CTCCTTAC</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="2"/>
+        <v>330A_1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>282</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>AGGCAGAA-AGAGGATA</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="1"/>
+        <v>AAGAGGCA-TACTCCTT</v>
+      </c>
+      <c r="I5" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>248</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>AGGCAGAA-ATAGAGAG</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>277</v>
+      </c>
+      <c r="F6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="1"/>
+        <v>AAGAGGCA-TATGCAGT</v>
+      </c>
+      <c r="I6" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>202</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>AGGCAGAA-CTCCTTAC</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="1"/>
+        <v>AGGCAGAA-AGAGGATA</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v>s210_1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>285</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>AGGCAGAA-TACTCCTT</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>209</v>
+      </c>
+      <c r="F8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="1"/>
+        <v>AGGCAGAA-ATAGAGAG</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v>131A_1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>197</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>AGGCAGAA-TATGCAGT</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>271</v>
+      </c>
+      <c r="F9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="1"/>
+        <v>AGGCAGAA-CTCCTTAC</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v>120A_2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>243</v>
       </c>
       <c r="B10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>CGAGGCTG-ATAGAGAG</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>282</v>
+      </c>
+      <c r="F10" t="s">
+        <v>131</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="1"/>
+        <v>AGGCAGAA-TACTCCTT</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v>120A_1.2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>242</v>
       </c>
       <c r="B11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>CGAGGCTG-CTCCTTAC</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>241</v>
+      </c>
+      <c r="F11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="1"/>
+        <v>AGGCAGAA-TATGCAGT</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
+        <v>218_1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>215</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>CGTACTAG-AGAGGATA</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>248</v>
+      </c>
+      <c r="F12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="1"/>
+        <v>ATCTCAGG-AGAGGATA</v>
+      </c>
+      <c r="I12" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>CGTACTAG-ATAGAGAG</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>202</v>
+      </c>
+      <c r="F13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="1"/>
+        <v>ATCTCAGG-ATAGAGAG</v>
+      </c>
+      <c r="I13" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>CGTACTAG-CTCCTTAC</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
+        <v>194</v>
+      </c>
+      <c r="F14" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="1"/>
+        <v>ATCTCAGG-CTCCTTAC</v>
+      </c>
+      <c r="I14" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>245</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>CGTACTAG-TACTCCTT</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>285</v>
+      </c>
+      <c r="F15" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="1"/>
+        <v>ATCTCAGG-TACTCCTT</v>
+      </c>
+      <c r="I15" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>262</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>CGTACTAG-TATGCAGT</v>
+      </c>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" t="s">
+        <v>197</v>
+      </c>
+      <c r="F16">
+        <v>2181</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="1"/>
+        <v>ATCTCAGG-TATGCAGT</v>
+      </c>
+      <c r="I16" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>250</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>CTCTCTAC-AGAGGATA</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>211</v>
+      </c>
+      <c r="F17" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="1"/>
+        <v>CGAGGCTG-AGAGGATA</v>
+      </c>
+      <c r="I17" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>126</v>
+        <v>281</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>CTCTCTAC-ATAGAGAG</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>201</v>
+      </c>
+      <c r="F18" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="1"/>
+        <v>CGAGGCTG-ATAGAGAG</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="2"/>
+        <v>140_3</v>
+      </c>
+      <c r="J18" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>254</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>CTCTCTAC-CTCCTTAC</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" t="s">
+        <v>228</v>
+      </c>
+      <c r="F19" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="1"/>
+        <v>CGAGGCTG-CTCCTTAC</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="2"/>
+        <v>120E_1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>128</v>
+        <v>207</v>
       </c>
       <c r="B20" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>CTCTCTAC-TATGCAGT</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" t="s">
+        <v>267</v>
+      </c>
+      <c r="F20" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="1"/>
+        <v>CGAGGCTG-TACTCCTT</v>
+      </c>
+      <c r="I20" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>129</v>
+        <v>221</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>GGACTCCT-AGAGGATA</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s">
+        <v>276</v>
+      </c>
+      <c r="F21" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="1"/>
+        <v>CGAGGCTG-TATGCAGT</v>
+      </c>
+      <c r="I21" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>130</v>
+        <v>234</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>GGACTCCT-CTCCTTAC</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" t="s">
+        <v>270</v>
+      </c>
+      <c r="F22" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="1"/>
+        <v>CGTACTAG-AGAGGATA</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="2"/>
+        <v>s240_1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>131</v>
+        <v>217</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>GGACTCCT-TACTCCTT</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" t="s">
+        <v>225</v>
+      </c>
+      <c r="F23" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="1"/>
+        <v>CGTACTAG-ATAGAGAG</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="2"/>
+        <v>344_1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>220</v>
       </c>
       <c r="B24" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>GGACTCCT-TATGCAGT</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>279</v>
+      </c>
+      <c r="F24" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="1"/>
+        <v>CGTACTAG-CTCCTTAC</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="2"/>
+        <v>346_1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>GTAGAGGA-AGAGGATA</v>
+      </c>
+      <c r="D25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" t="s">
+        <v>269</v>
+      </c>
+      <c r="F25" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="1"/>
+        <v>CGTACTAG-TACTCCTT</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="2"/>
+        <v>125A_1.2</v>
+      </c>
+      <c r="J25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>134</v>
+        <v>253</v>
       </c>
       <c r="B26" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>GTAGAGGA-ATAGAGAG</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" t="s">
+        <v>206</v>
+      </c>
+      <c r="F26" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="1"/>
+        <v>CGTACTAG-TATGCAGT</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="2"/>
+        <v>308A_1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>135</v>
+        <v>259</v>
       </c>
       <c r="B27" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>GTAGAGGA-CTCCTTAC</v>
+      </c>
+      <c r="D27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" t="s">
+        <v>243</v>
+      </c>
+      <c r="F27">
+        <v>1403</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="1"/>
+        <v>CTCTCTAC-AGAGGATA</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="2"/>
+        <v>346_2</v>
+      </c>
+      <c r="J27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>136</v>
+        <v>231</v>
       </c>
       <c r="B28" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>GTAGAGGA-TATGCAGT</v>
+      </c>
+      <c r="D28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" t="s">
+        <v>242</v>
+      </c>
+      <c r="F28" t="s">
+        <v>120</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="1"/>
+        <v>CTCTCTAC-ATAGAGAG</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="2"/>
+        <v>140_2</v>
+      </c>
+      <c r="J28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>137</v>
+        <v>235</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>TAAGGCGA-AGAGGATA</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>249</v>
+      </c>
+      <c r="F29" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="1"/>
+        <v>CTCTCTAC-CTCCTTAC</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="2"/>
+        <v>125C_1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>138</v>
+        <v>246</v>
       </c>
       <c r="B30" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>TAAGGCGA-ATAGAGAG</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>244</v>
+      </c>
+      <c r="F30" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="1"/>
+        <v>CTCTCTAC-TACTCCTT</v>
+      </c>
+      <c r="I30" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>139</v>
+        <v>218</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>TAAGGCGA-CTCCTTAC</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>263</v>
+      </c>
+      <c r="F31" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="1"/>
+        <v>CTCTCTAC-TATGCAGT</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="2"/>
+        <v>318_2</v>
+      </c>
+      <c r="J31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>140</v>
+        <v>229</v>
       </c>
       <c r="B32" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>TAAGGCGA-TACTCCTT</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>239</v>
+      </c>
+      <c r="F32" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="1"/>
+        <v>GCTCATGA-AGAGGATA</v>
+      </c>
+      <c r="I32" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J32" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>141</v>
+        <v>237</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>TAAGGCGA-TATGCAGT</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>215</v>
+      </c>
+      <c r="F33" t="s">
+        <v>114</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="1"/>
+        <v>GCTCATGA-ATAGAGAG</v>
+      </c>
+      <c r="I33" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J33" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>142</v>
+        <v>214</v>
       </c>
       <c r="B34" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>TAGGCATG-AGAGGATA</v>
+      </c>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" t="s">
+        <v>233</v>
+      </c>
+      <c r="F34" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="1"/>
+        <v>GCTCATGA-CTCCTTAC</v>
+      </c>
+      <c r="I34" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J34" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>143</v>
+        <v>278</v>
       </c>
       <c r="B35" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>TAGGCATG-ATAGAGAG</v>
+      </c>
+      <c r="D35" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" t="s">
+        <v>224</v>
+      </c>
+      <c r="F35">
+        <v>3441</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="1"/>
+        <v>GCTCATGA-TACTCCTT</v>
+      </c>
+      <c r="I35" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J35" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>144</v>
+        <v>258</v>
       </c>
       <c r="B36" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>TAGGCATG-TATGCAGT</v>
+      </c>
+      <c r="D36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" t="s">
+        <v>265</v>
+      </c>
+      <c r="F36">
+        <v>3461</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="1"/>
+        <v>GCTCATGA-TATGCAGT</v>
+      </c>
+      <c r="I36" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J36" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>145</v>
+        <v>272</v>
       </c>
       <c r="B37" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>TCCTGAGC-AGAGGATA</v>
+      </c>
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" t="s">
+        <v>227</v>
+      </c>
+      <c r="F37" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="1"/>
+        <v>GGACTCCT-AGAGGATA</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="2"/>
+        <v>H241_1</v>
+      </c>
+      <c r="J37" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>146</v>
+        <v>268</v>
       </c>
       <c r="B38" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>TCCTGAGC-ATAGAGAG</v>
+      </c>
+      <c r="D38" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" t="s">
+        <v>245</v>
+      </c>
+      <c r="F38" t="s">
+        <v>121</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="1"/>
+        <v>GGACTCCT-ATAGAGAG</v>
+      </c>
+      <c r="I38" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>147</v>
+        <v>286</v>
       </c>
       <c r="B39" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>TCCTGAGC-CTCCTTAC</v>
+      </c>
+      <c r="D39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" t="s">
+        <v>262</v>
+      </c>
+      <c r="F39" t="s">
+        <v>128</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="1"/>
+        <v>GGACTCCT-CTCCTTAC</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="2"/>
+        <v>308_1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>148</v>
+        <v>283</v>
       </c>
       <c r="B40" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>TCCTGAGC-TACTCCTT</v>
+      </c>
+      <c r="D40" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" t="s">
+        <v>240</v>
+      </c>
+      <c r="F40" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="1"/>
+        <v>GGACTCCT-TACTCCTT</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="2"/>
+        <v>ONLY REAGENTS</v>
+      </c>
+      <c r="J40" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="B41" t="s">
         <v>23</v>
       </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>TCCTGAGC-TATGCAGT</v>
+      </c>
+      <c r="D41" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" t="s">
+        <v>250</v>
+      </c>
+      <c r="F41">
+        <v>3462</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="1"/>
+        <v>GGACTCCT-TATGCAGT</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="2"/>
+        <v>220_2</v>
+      </c>
+      <c r="J41" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E42" t="s">
+        <v>208</v>
+      </c>
+      <c r="F42" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="1"/>
+        <v>GTAGAGGA-AGAGGATA</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="2"/>
+        <v>304A_1</v>
+      </c>
+      <c r="J42" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E43" t="s">
+        <v>281</v>
+      </c>
+      <c r="F43">
+        <v>1402</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="1"/>
+        <v>GTAGAGGA-ATAGAGAG</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="2"/>
+        <v>242_2</v>
+      </c>
+      <c r="J43" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E44" t="s">
+        <v>254</v>
+      </c>
+      <c r="F44" t="s">
+        <v>124</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="1"/>
+        <v>GTAGAGGA-CTCCTTAC</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="2"/>
+        <v>H241_2</v>
+      </c>
+      <c r="J44" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E45" t="s">
+        <v>236</v>
+      </c>
+      <c r="F45" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="1"/>
+        <v>GTAGAGGA-TACTCCTT</v>
+      </c>
+      <c r="I45" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J45" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E46" t="s">
+        <v>195</v>
+      </c>
+      <c r="F46" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="1"/>
+        <v>GTAGAGGA-TATGCAGT</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="2"/>
+        <v>H241_2.2</v>
+      </c>
+      <c r="J46" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E47" t="s">
+        <v>207</v>
+      </c>
+      <c r="F47">
+        <v>3182</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="1"/>
+        <v>TAAGGCGA-AGAGGATA</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="2"/>
+        <v>120A_1</v>
+      </c>
+      <c r="J47" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E48" t="s">
+        <v>213</v>
+      </c>
+      <c r="F48" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="1"/>
+        <v>TAAGGCGA-ATAGAGAG</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="2"/>
+        <v>140_1</v>
+      </c>
+      <c r="J48" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10">
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E49" t="s">
+        <v>198</v>
+      </c>
+      <c r="F49" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="1"/>
+        <v>TAAGGCGA-CTCCTTAC</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="2"/>
+        <v>120_2</v>
+      </c>
+      <c r="J49" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10">
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E50" t="s">
+        <v>212</v>
+      </c>
+      <c r="F50" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="1"/>
+        <v>TAAGGCGA-TACTCCTT</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="2"/>
+        <v>120A_2.2</v>
+      </c>
+      <c r="J50" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10">
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E51" t="s">
+        <v>280</v>
+      </c>
+      <c r="F51" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="1"/>
+        <v>TAAGGCGA-TATGCAGT</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="2"/>
+        <v>219_1</v>
+      </c>
+      <c r="J51" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10">
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E52" t="s">
+        <v>204</v>
+      </c>
+      <c r="F52" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="1"/>
+        <v>TAGGCATG-AGAGGATA</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="2"/>
+        <v>125_2</v>
+      </c>
+      <c r="J52" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10">
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E53" t="s">
+        <v>216</v>
+      </c>
+      <c r="F53" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="1"/>
+        <v>TAGGCATG-ATAGAGAG</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="2"/>
+        <v>220_1</v>
+      </c>
+      <c r="J53" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="54" spans="3:10">
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E54" t="s">
+        <v>284</v>
+      </c>
+      <c r="F54" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="1"/>
+        <v>TAGGCATG-CTCCTTAC</v>
+      </c>
+      <c r="I54" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J54" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10">
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E55" t="s">
+        <v>221</v>
+      </c>
+      <c r="F55" t="s">
+        <v>116</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="1"/>
+        <v>TAGGCATG-TACTCCTT</v>
+      </c>
+      <c r="I55" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J55" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="56" spans="3:10">
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E56" t="s">
+        <v>264</v>
+      </c>
+      <c r="F56" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="1"/>
+        <v>TAGGCATG-TATGCAGT</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="2"/>
+        <v>S230_1</v>
+      </c>
+      <c r="J56" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="57" spans="3:10">
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E57" t="s">
+        <v>260</v>
+      </c>
+      <c r="F57" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="1"/>
+        <v>TCCTGAGC-AGAGGATA</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="2"/>
+        <v>304B_1</v>
+      </c>
+      <c r="J57" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="58" spans="3:10">
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E58" t="s">
+        <v>234</v>
+      </c>
+      <c r="F58">
+        <v>3081</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="1"/>
+        <v>TCCTGAGC-ATAGAGAG</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="2"/>
+        <v>B40_1</v>
+      </c>
+      <c r="J58" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="59" spans="3:10">
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E59" t="s">
+        <v>223</v>
+      </c>
+      <c r="F59" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="1"/>
+        <v>TCCTGAGC-CTCCTTAC</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="2"/>
+        <v>304_1</v>
+      </c>
+      <c r="J59" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="60" spans="3:10">
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E60" t="s">
+        <v>217</v>
+      </c>
+      <c r="F60" t="s">
+        <v>115</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="1"/>
+        <v>TCCTGAGC-TACTCCTT</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="2"/>
+        <v>S210_1.2</v>
+      </c>
+      <c r="J60" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="61" spans="3:10">
+      <c r="C61" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E61" t="s">
+        <v>220</v>
+      </c>
+      <c r="F61">
+        <v>2202</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="1"/>
+        <v>TCCTGAGC-TATGCAGT</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="2"/>
+        <v>246_1</v>
+      </c>
+      <c r="J61" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="62" spans="3:10">
+      <c r="C62" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E62" t="s">
+        <v>238</v>
+      </c>
+      <c r="F62" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="1"/>
+        <v>Undetermined_S0</v>
+      </c>
+      <c r="I62" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J62" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="3:10">
+      <c r="C63" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E63" t="s">
+        <v>251</v>
+      </c>
+      <c r="F63" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" spans="3:10">
+      <c r="C64" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E64" t="s">
+        <v>222</v>
+      </c>
+      <c r="F64" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6">
+      <c r="C65" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E65" t="s">
+        <v>253</v>
+      </c>
+      <c r="F65">
+        <v>2422</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6">
+      <c r="C66" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="E66" t="s">
+        <v>259</v>
+      </c>
+      <c r="F66" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6">
+      <c r="C67" t="str">
+        <f t="shared" ref="C67:C95" si="3">LEFT(A67,17)</f>
+        <v/>
+      </c>
+      <c r="E67" t="s">
+        <v>230</v>
+      </c>
+      <c r="F67" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6">
+      <c r="C68" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E68" t="s">
+        <v>255</v>
+      </c>
+      <c r="F68" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6">
+      <c r="C69" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E69" t="s">
+        <v>231</v>
+      </c>
+      <c r="F69" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6">
+      <c r="C70" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E70" t="s">
+        <v>273</v>
+      </c>
+      <c r="F70" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6">
+      <c r="C71" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E71" t="s">
+        <v>235</v>
+      </c>
+      <c r="F71" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6">
+      <c r="C72" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E72" t="s">
+        <v>199</v>
+      </c>
+      <c r="F72" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6">
+      <c r="C73" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E73" t="s">
+        <v>246</v>
+      </c>
+      <c r="F73">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6">
+      <c r="C74" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E74" t="s">
+        <v>218</v>
+      </c>
+      <c r="F74">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6">
+      <c r="C75" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E75" t="s">
+        <v>226</v>
+      </c>
+      <c r="F75" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6">
+      <c r="C76" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E76" t="s">
+        <v>229</v>
+      </c>
+      <c r="F76" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="3:6">
+      <c r="C77" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E77" t="s">
+        <v>237</v>
+      </c>
+      <c r="F77">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="78" spans="3:6">
+      <c r="C78" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E78" t="s">
+        <v>275</v>
+      </c>
+      <c r="F78" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="79" spans="3:6">
+      <c r="C79" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E79" t="s">
+        <v>214</v>
+      </c>
+      <c r="F79">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="80" spans="3:6">
+      <c r="C80" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E80" t="s">
+        <v>266</v>
+      </c>
+      <c r="F80" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="81" spans="3:6">
+      <c r="C81" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E81" t="s">
+        <v>278</v>
+      </c>
+      <c r="F81">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="82" spans="3:6">
+      <c r="C82" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E82" t="s">
+        <v>257</v>
+      </c>
+      <c r="F82" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="83" spans="3:6">
+      <c r="C83" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E83" t="s">
+        <v>210</v>
+      </c>
+      <c r="F83" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="84" spans="3:6">
+      <c r="C84" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E84" t="s">
+        <v>196</v>
+      </c>
+      <c r="F84" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="85" spans="3:6">
+      <c r="C85" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E85" t="s">
+        <v>258</v>
+      </c>
+      <c r="F85" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" spans="3:6">
+      <c r="C86" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E86" t="s">
+        <v>219</v>
+      </c>
+      <c r="F86" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="87" spans="3:6">
+      <c r="C87" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E87" t="s">
+        <v>272</v>
+      </c>
+      <c r="F87" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="88" spans="3:6">
+      <c r="C88" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E88" t="s">
+        <v>232</v>
+      </c>
+      <c r="F88" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="89" spans="3:6">
+      <c r="C89" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E89" t="s">
+        <v>268</v>
+      </c>
+      <c r="F89" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="90" spans="3:6">
+      <c r="C90" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E90" t="s">
+        <v>286</v>
+      </c>
+      <c r="F90">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="91" spans="3:6">
+      <c r="C91" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E91" t="s">
+        <v>205</v>
+      </c>
+      <c r="F91" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="92" spans="3:6">
+      <c r="C92" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E92" t="s">
+        <v>283</v>
+      </c>
+      <c r="F92" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="93" spans="3:6">
+      <c r="C93" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E93" t="s">
+        <v>252</v>
+      </c>
+      <c r="F93">
+        <v>2461</v>
+      </c>
+    </row>
+    <row r="94" spans="3:6">
+      <c r="C94" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E94" t="s">
+        <v>247</v>
+      </c>
+      <c r="F94" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="95" spans="3:6">
+      <c r="C95" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E95" t="s">
+        <v>112</v>
+      </c>
+      <c r="F95" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="C2:E95">
+    <sortCondition ref="C2:C95"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E427"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="1"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="1"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="1"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="1"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="1"/>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="1"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="1"/>
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="1"/>
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="1"/>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="1"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="1"/>
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="1"/>
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="1"/>
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="1"/>
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="1"/>
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="1"/>
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="1"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="1"/>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="1"/>
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="1"/>
+      <c r="B201" s="1"/>
+      <c r="C201" s="1"/>
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="1"/>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="1"/>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="1"/>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1"/>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="1"/>
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1"/>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="1"/>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="1"/>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1"/>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="1"/>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1"/>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="1"/>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="1"/>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="1"/>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="1"/>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="1"/>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="1"/>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="1"/>
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="1"/>
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="1"/>
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="1"/>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="1"/>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1"/>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="1"/>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="1"/>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="1"/>
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+      <c r="E221" s="1"/>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="1"/>
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+      <c r="E222" s="1"/>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="1"/>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1"/>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="1"/>
+      <c r="B224" s="1"/>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1"/>
+      <c r="E224" s="1"/>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="1"/>
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
+      <c r="E225" s="1"/>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="1"/>
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
+      <c r="D226" s="1"/>
+      <c r="E226" s="1"/>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="1"/>
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+      <c r="E227" s="1"/>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
+      <c r="E228" s="1"/>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="1"/>
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="1"/>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+      <c r="E230" s="1"/>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="1"/>
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+      <c r="E231" s="1"/>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="1"/>
+      <c r="B232" s="1"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+      <c r="E232" s="1"/>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="1"/>
+      <c r="B233" s="1"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
+      <c r="E233" s="1"/>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="1"/>
+      <c r="B234" s="1"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+      <c r="E234" s="1"/>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="1"/>
+      <c r="B235" s="1"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+      <c r="E235" s="1"/>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="1"/>
+      <c r="B236" s="1"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+      <c r="E236" s="1"/>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="1"/>
+      <c r="B237" s="1"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+      <c r="E237" s="1"/>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="1"/>
+      <c r="B238" s="1"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+      <c r="E238" s="1"/>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="1"/>
+      <c r="B239" s="1"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+      <c r="E239" s="1"/>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="1"/>
+      <c r="B240" s="1"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
+      <c r="E240" s="1"/>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="1"/>
+      <c r="B241" s="1"/>
+      <c r="C241" s="1"/>
+      <c r="D241" s="1"/>
+      <c r="E241" s="1"/>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="1"/>
+      <c r="B242" s="1"/>
+      <c r="C242" s="1"/>
+      <c r="D242" s="1"/>
+      <c r="E242" s="1"/>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="1"/>
+      <c r="B243" s="1"/>
+      <c r="C243" s="1"/>
+      <c r="D243" s="1"/>
+      <c r="E243" s="1"/>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="1"/>
+      <c r="B244" s="1"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
+      <c r="E244" s="1"/>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="1"/>
+      <c r="B245" s="1"/>
+      <c r="C245" s="1"/>
+      <c r="D245" s="1"/>
+      <c r="E245" s="1"/>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="1"/>
+      <c r="B246" s="1"/>
+      <c r="C246" s="1"/>
+      <c r="D246" s="1"/>
+      <c r="E246" s="1"/>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="1"/>
+      <c r="B247" s="1"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="1"/>
+      <c r="E247" s="1"/>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="1"/>
+      <c r="B248" s="1"/>
+      <c r="C248" s="1"/>
+      <c r="D248" s="1"/>
+      <c r="E248" s="1"/>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="1"/>
+      <c r="B249" s="1"/>
+      <c r="C249" s="1"/>
+      <c r="D249" s="1"/>
+      <c r="E249" s="1"/>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="1"/>
+      <c r="B250" s="1"/>
+      <c r="C250" s="1"/>
+      <c r="D250" s="1"/>
+      <c r="E250" s="1"/>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="1"/>
+      <c r="B251" s="1"/>
+      <c r="C251" s="1"/>
+      <c r="D251" s="1"/>
+      <c r="E251" s="1"/>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="1"/>
+      <c r="B252" s="1"/>
+      <c r="C252" s="1"/>
+      <c r="D252" s="1"/>
+      <c r="E252" s="1"/>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="1"/>
+      <c r="B253" s="1"/>
+      <c r="C253" s="1"/>
+      <c r="D253" s="1"/>
+      <c r="E253" s="1"/>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="1"/>
+      <c r="B254" s="1"/>
+      <c r="C254" s="1"/>
+      <c r="D254" s="1"/>
+      <c r="E254" s="1"/>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="1"/>
+      <c r="B255" s="1"/>
+      <c r="C255" s="1"/>
+      <c r="D255" s="1"/>
+      <c r="E255" s="1"/>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="1"/>
+      <c r="B256" s="1"/>
+      <c r="C256" s="1"/>
+      <c r="D256" s="1"/>
+      <c r="E256" s="1"/>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="1"/>
+      <c r="B257" s="1"/>
+      <c r="C257" s="1"/>
+      <c r="D257" s="1"/>
+      <c r="E257" s="1"/>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="1"/>
+      <c r="B258" s="1"/>
+      <c r="C258" s="1"/>
+      <c r="D258" s="1"/>
+      <c r="E258" s="1"/>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="1"/>
+      <c r="B259" s="1"/>
+      <c r="C259" s="1"/>
+      <c r="D259" s="1"/>
+      <c r="E259" s="1"/>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="1"/>
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1"/>
+      <c r="E260" s="1"/>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="1"/>
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
+      <c r="D261" s="1"/>
+      <c r="E261" s="1"/>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="1"/>
+      <c r="B262" s="1"/>
+      <c r="C262" s="1"/>
+      <c r="D262" s="1"/>
+      <c r="E262" s="1"/>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="1"/>
+      <c r="B263" s="1"/>
+      <c r="C263" s="1"/>
+      <c r="D263" s="1"/>
+      <c r="E263" s="1"/>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="1"/>
+      <c r="B264" s="1"/>
+      <c r="C264" s="1"/>
+      <c r="D264" s="1"/>
+      <c r="E264" s="1"/>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="1"/>
+      <c r="B265" s="1"/>
+      <c r="C265" s="1"/>
+      <c r="D265" s="1"/>
+      <c r="E265" s="1"/>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="1"/>
+      <c r="B266" s="1"/>
+      <c r="C266" s="1"/>
+      <c r="D266" s="1"/>
+      <c r="E266" s="1"/>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="1"/>
+      <c r="B267" s="1"/>
+      <c r="C267" s="1"/>
+      <c r="D267" s="1"/>
+      <c r="E267" s="1"/>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="1"/>
+      <c r="B268" s="1"/>
+      <c r="C268" s="1"/>
+      <c r="D268" s="1"/>
+      <c r="E268" s="1"/>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="1"/>
+      <c r="B269" s="1"/>
+      <c r="C269" s="1"/>
+      <c r="D269" s="1"/>
+      <c r="E269" s="1"/>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="1"/>
+      <c r="B270" s="1"/>
+      <c r="C270" s="1"/>
+      <c r="D270" s="1"/>
+      <c r="E270" s="1"/>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="1"/>
+      <c r="B271" s="1"/>
+      <c r="C271" s="1"/>
+      <c r="D271" s="1"/>
+      <c r="E271" s="1"/>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="1"/>
+      <c r="B272" s="1"/>
+      <c r="C272" s="1"/>
+      <c r="D272" s="1"/>
+      <c r="E272" s="1"/>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="1"/>
+      <c r="B273" s="1"/>
+      <c r="C273" s="1"/>
+      <c r="D273" s="1"/>
+      <c r="E273" s="1"/>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="1"/>
+      <c r="B274" s="1"/>
+      <c r="C274" s="1"/>
+      <c r="D274" s="1"/>
+      <c r="E274" s="1"/>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="1"/>
+      <c r="B275" s="1"/>
+      <c r="C275" s="1"/>
+      <c r="D275" s="1"/>
+      <c r="E275" s="1"/>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="1"/>
+      <c r="B276" s="1"/>
+      <c r="C276" s="1"/>
+      <c r="D276" s="1"/>
+      <c r="E276" s="1"/>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="1"/>
+      <c r="B277" s="1"/>
+      <c r="C277" s="1"/>
+      <c r="D277" s="1"/>
+      <c r="E277" s="1"/>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="1"/>
+      <c r="B278" s="1"/>
+      <c r="C278" s="1"/>
+      <c r="D278" s="1"/>
+      <c r="E278" s="1"/>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="1"/>
+      <c r="B279" s="1"/>
+      <c r="C279" s="1"/>
+      <c r="D279" s="1"/>
+      <c r="E279" s="1"/>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="1"/>
+      <c r="B280" s="1"/>
+      <c r="C280" s="1"/>
+      <c r="D280" s="1"/>
+      <c r="E280" s="1"/>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="1"/>
+      <c r="B281" s="1"/>
+      <c r="C281" s="1"/>
+      <c r="D281" s="1"/>
+      <c r="E281" s="1"/>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="1"/>
+      <c r="B282" s="1"/>
+      <c r="C282" s="1"/>
+      <c r="D282" s="1"/>
+      <c r="E282" s="1"/>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="1"/>
+      <c r="B283" s="1"/>
+      <c r="C283" s="1"/>
+      <c r="D283" s="1"/>
+      <c r="E283" s="1"/>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="1"/>
+      <c r="B284" s="1"/>
+      <c r="C284" s="1"/>
+      <c r="D284" s="1"/>
+      <c r="E284" s="1"/>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="1"/>
+      <c r="B285" s="1"/>
+      <c r="C285" s="1"/>
+      <c r="D285" s="1"/>
+      <c r="E285" s="1"/>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="1"/>
+      <c r="B286" s="1"/>
+      <c r="C286" s="1"/>
+      <c r="D286" s="1"/>
+      <c r="E286" s="1"/>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="1"/>
+      <c r="B287" s="1"/>
+      <c r="C287" s="1"/>
+      <c r="D287" s="1"/>
+      <c r="E287" s="1"/>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="1"/>
+      <c r="B288" s="1"/>
+      <c r="C288" s="1"/>
+      <c r="D288" s="1"/>
+      <c r="E288" s="1"/>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="1"/>
+      <c r="B289" s="1"/>
+      <c r="C289" s="1"/>
+      <c r="D289" s="1"/>
+      <c r="E289" s="1"/>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="1"/>
+      <c r="B290" s="1"/>
+      <c r="C290" s="1"/>
+      <c r="D290" s="1"/>
+      <c r="E290" s="1"/>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="1"/>
+      <c r="B291" s="1"/>
+      <c r="C291" s="1"/>
+      <c r="D291" s="1"/>
+      <c r="E291" s="1"/>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="1"/>
+      <c r="B292" s="1"/>
+      <c r="C292" s="1"/>
+      <c r="D292" s="1"/>
+      <c r="E292" s="1"/>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="1"/>
+      <c r="B293" s="1"/>
+      <c r="C293" s="1"/>
+      <c r="D293" s="1"/>
+      <c r="E293" s="1"/>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="1"/>
+      <c r="B294" s="1"/>
+      <c r="C294" s="1"/>
+      <c r="D294" s="1"/>
+      <c r="E294" s="1"/>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" s="1"/>
+      <c r="B295" s="1"/>
+      <c r="C295" s="1"/>
+      <c r="D295" s="1"/>
+      <c r="E295" s="1"/>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="1"/>
+      <c r="B296" s="1"/>
+      <c r="C296" s="1"/>
+      <c r="D296" s="1"/>
+      <c r="E296" s="1"/>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="1"/>
+      <c r="B297" s="1"/>
+      <c r="C297" s="1"/>
+      <c r="D297" s="1"/>
+      <c r="E297" s="1"/>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="1"/>
+      <c r="B298" s="1"/>
+      <c r="C298" s="1"/>
+      <c r="D298" s="1"/>
+      <c r="E298" s="1"/>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="1"/>
+      <c r="B299" s="1"/>
+      <c r="C299" s="1"/>
+      <c r="D299" s="1"/>
+      <c r="E299" s="1"/>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="1"/>
+      <c r="B300" s="1"/>
+      <c r="C300" s="1"/>
+      <c r="D300" s="1"/>
+      <c r="E300" s="1"/>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" s="1"/>
+      <c r="B301" s="1"/>
+      <c r="C301" s="1"/>
+      <c r="D301" s="1"/>
+      <c r="E301" s="1"/>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" s="1"/>
+      <c r="B302" s="1"/>
+      <c r="C302" s="1"/>
+      <c r="D302" s="1"/>
+      <c r="E302" s="1"/>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="1"/>
+      <c r="B303" s="1"/>
+      <c r="C303" s="1"/>
+      <c r="D303" s="1"/>
+      <c r="E303" s="1"/>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="1"/>
+      <c r="B304" s="1"/>
+      <c r="C304" s="1"/>
+      <c r="D304" s="1"/>
+      <c r="E304" s="1"/>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="1"/>
+      <c r="B305" s="1"/>
+      <c r="C305" s="1"/>
+      <c r="D305" s="1"/>
+      <c r="E305" s="1"/>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="1"/>
+      <c r="B306" s="1"/>
+      <c r="C306" s="1"/>
+      <c r="D306" s="1"/>
+      <c r="E306" s="1"/>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="1"/>
+      <c r="B307" s="1"/>
+      <c r="C307" s="1"/>
+      <c r="D307" s="1"/>
+      <c r="E307" s="1"/>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="1"/>
+      <c r="B308" s="1"/>
+      <c r="C308" s="1"/>
+      <c r="D308" s="1"/>
+      <c r="E308" s="1"/>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="1"/>
+      <c r="B309" s="1"/>
+      <c r="C309" s="1"/>
+      <c r="D309" s="1"/>
+      <c r="E309" s="1"/>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="1"/>
+      <c r="B310" s="1"/>
+      <c r="C310" s="1"/>
+      <c r="D310" s="1"/>
+      <c r="E310" s="1"/>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="1"/>
+      <c r="B311" s="1"/>
+      <c r="C311" s="1"/>
+      <c r="D311" s="1"/>
+      <c r="E311" s="1"/>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="1"/>
+      <c r="B312" s="1"/>
+      <c r="C312" s="1"/>
+      <c r="D312" s="1"/>
+      <c r="E312" s="1"/>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="1"/>
+      <c r="B313" s="1"/>
+      <c r="C313" s="1"/>
+      <c r="D313" s="1"/>
+      <c r="E313" s="1"/>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="1"/>
+      <c r="B314" s="1"/>
+      <c r="C314" s="1"/>
+      <c r="D314" s="1"/>
+      <c r="E314" s="1"/>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="1"/>
+      <c r="B315" s="1"/>
+      <c r="C315" s="1"/>
+      <c r="D315" s="1"/>
+      <c r="E315" s="1"/>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="1"/>
+      <c r="B316" s="1"/>
+      <c r="C316" s="1"/>
+      <c r="D316" s="1"/>
+      <c r="E316" s="1"/>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="1"/>
+      <c r="B317" s="1"/>
+      <c r="C317" s="1"/>
+      <c r="D317" s="1"/>
+      <c r="E317" s="1"/>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="1"/>
+      <c r="B318" s="1"/>
+      <c r="C318" s="1"/>
+      <c r="D318" s="1"/>
+      <c r="E318" s="1"/>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="1"/>
+      <c r="B319" s="1"/>
+      <c r="C319" s="1"/>
+      <c r="D319" s="1"/>
+      <c r="E319" s="1"/>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="1"/>
+      <c r="B320" s="1"/>
+      <c r="C320" s="1"/>
+      <c r="D320" s="1"/>
+      <c r="E320" s="1"/>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="1"/>
+      <c r="B321" s="1"/>
+      <c r="C321" s="1"/>
+      <c r="D321" s="1"/>
+      <c r="E321" s="1"/>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="1"/>
+      <c r="B322" s="1"/>
+      <c r="C322" s="1"/>
+      <c r="D322" s="1"/>
+      <c r="E322" s="1"/>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="1"/>
+      <c r="B323" s="1"/>
+      <c r="C323" s="1"/>
+      <c r="D323" s="1"/>
+      <c r="E323" s="1"/>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="1"/>
+      <c r="B324" s="1"/>
+      <c r="C324" s="1"/>
+      <c r="D324" s="1"/>
+      <c r="E324" s="1"/>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="1"/>
+      <c r="B325" s="1"/>
+      <c r="C325" s="1"/>
+      <c r="D325" s="1"/>
+      <c r="E325" s="1"/>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="1"/>
+      <c r="B326" s="1"/>
+      <c r="C326" s="1"/>
+      <c r="D326" s="1"/>
+      <c r="E326" s="1"/>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="1"/>
+      <c r="B327" s="1"/>
+      <c r="C327" s="1"/>
+      <c r="D327" s="1"/>
+      <c r="E327" s="1"/>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" s="1"/>
+      <c r="B328" s="1"/>
+      <c r="C328" s="1"/>
+      <c r="D328" s="1"/>
+      <c r="E328" s="1"/>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="1"/>
+      <c r="B329" s="1"/>
+      <c r="C329" s="1"/>
+      <c r="D329" s="1"/>
+      <c r="E329" s="1"/>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="1"/>
+      <c r="B330" s="1"/>
+      <c r="C330" s="1"/>
+      <c r="D330" s="1"/>
+      <c r="E330" s="1"/>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="1"/>
+      <c r="B331" s="1"/>
+      <c r="C331" s="1"/>
+      <c r="D331" s="1"/>
+      <c r="E331" s="1"/>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="1"/>
+      <c r="B332" s="1"/>
+      <c r="C332" s="1"/>
+      <c r="D332" s="1"/>
+      <c r="E332" s="1"/>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="1"/>
+      <c r="B333" s="1"/>
+      <c r="C333" s="1"/>
+      <c r="D333" s="1"/>
+      <c r="E333" s="1"/>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="1"/>
+      <c r="B334" s="1"/>
+      <c r="C334" s="1"/>
+      <c r="D334" s="1"/>
+      <c r="E334" s="1"/>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="1"/>
+      <c r="B335" s="1"/>
+      <c r="C335" s="1"/>
+      <c r="D335" s="1"/>
+      <c r="E335" s="1"/>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="1"/>
+      <c r="B336" s="1"/>
+      <c r="C336" s="1"/>
+      <c r="D336" s="1"/>
+      <c r="E336" s="1"/>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" s="1"/>
+      <c r="B337" s="1"/>
+      <c r="C337" s="1"/>
+      <c r="D337" s="1"/>
+      <c r="E337" s="1"/>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="1"/>
+      <c r="B338" s="1"/>
+      <c r="C338" s="1"/>
+      <c r="D338" s="1"/>
+      <c r="E338" s="1"/>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" s="1"/>
+      <c r="B339" s="1"/>
+      <c r="C339" s="1"/>
+      <c r="D339" s="1"/>
+      <c r="E339" s="1"/>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" s="1"/>
+      <c r="B340" s="1"/>
+      <c r="C340" s="1"/>
+      <c r="D340" s="1"/>
+      <c r="E340" s="1"/>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" s="1"/>
+      <c r="B341" s="1"/>
+      <c r="C341" s="1"/>
+      <c r="D341" s="1"/>
+      <c r="E341" s="1"/>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="1"/>
+      <c r="B342" s="1"/>
+      <c r="C342" s="1"/>
+      <c r="D342" s="1"/>
+      <c r="E342" s="1"/>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" s="1"/>
+      <c r="B343" s="1"/>
+      <c r="C343" s="1"/>
+      <c r="D343" s="1"/>
+      <c r="E343" s="1"/>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="1"/>
+      <c r="B344" s="1"/>
+      <c r="C344" s="1"/>
+      <c r="D344" s="1"/>
+      <c r="E344" s="1"/>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" s="1"/>
+      <c r="B345" s="1"/>
+      <c r="C345" s="1"/>
+      <c r="D345" s="1"/>
+      <c r="E345" s="1"/>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" s="1"/>
+      <c r="B346" s="1"/>
+      <c r="C346" s="1"/>
+      <c r="D346" s="1"/>
+      <c r="E346" s="1"/>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" s="1"/>
+      <c r="B347" s="1"/>
+      <c r="C347" s="1"/>
+      <c r="D347" s="1"/>
+      <c r="E347" s="1"/>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" s="1"/>
+      <c r="B348" s="1"/>
+      <c r="C348" s="1"/>
+      <c r="D348" s="1"/>
+      <c r="E348" s="1"/>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" s="1"/>
+      <c r="B349" s="1"/>
+      <c r="C349" s="1"/>
+      <c r="D349" s="1"/>
+      <c r="E349" s="1"/>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" s="1"/>
+      <c r="B350" s="1"/>
+      <c r="C350" s="1"/>
+      <c r="D350" s="1"/>
+      <c r="E350" s="1"/>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="1"/>
+      <c r="B351" s="1"/>
+      <c r="C351" s="1"/>
+      <c r="D351" s="1"/>
+      <c r="E351" s="1"/>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" s="1"/>
+      <c r="B352" s="1"/>
+      <c r="C352" s="1"/>
+      <c r="D352" s="1"/>
+      <c r="E352" s="1"/>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="1"/>
+      <c r="B353" s="1"/>
+      <c r="C353" s="1"/>
+      <c r="D353" s="1"/>
+      <c r="E353" s="1"/>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" s="1"/>
+      <c r="B354" s="1"/>
+      <c r="C354" s="1"/>
+      <c r="D354" s="1"/>
+      <c r="E354" s="1"/>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" s="1"/>
+      <c r="B355" s="1"/>
+      <c r="C355" s="1"/>
+      <c r="D355" s="1"/>
+      <c r="E355" s="1"/>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" s="1"/>
+      <c r="B356" s="1"/>
+      <c r="C356" s="1"/>
+      <c r="D356" s="1"/>
+      <c r="E356" s="1"/>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" s="1"/>
+      <c r="B357" s="1"/>
+      <c r="C357" s="1"/>
+      <c r="D357" s="1"/>
+      <c r="E357" s="1"/>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" s="1"/>
+      <c r="B358" s="1"/>
+      <c r="C358" s="1"/>
+      <c r="D358" s="1"/>
+      <c r="E358" s="1"/>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" s="1"/>
+      <c r="B359" s="1"/>
+      <c r="C359" s="1"/>
+      <c r="D359" s="1"/>
+      <c r="E359" s="1"/>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" s="1"/>
+      <c r="B360" s="1"/>
+      <c r="C360" s="1"/>
+      <c r="D360" s="1"/>
+      <c r="E360" s="1"/>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" s="1"/>
+      <c r="B361" s="1"/>
+      <c r="C361" s="1"/>
+      <c r="D361" s="1"/>
+      <c r="E361" s="1"/>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" s="1"/>
+      <c r="B362" s="1"/>
+      <c r="C362" s="1"/>
+      <c r="D362" s="1"/>
+      <c r="E362" s="1"/>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" s="1"/>
+      <c r="B363" s="1"/>
+      <c r="C363" s="1"/>
+      <c r="D363" s="1"/>
+      <c r="E363" s="1"/>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" s="1"/>
+      <c r="B364" s="1"/>
+      <c r="C364" s="1"/>
+      <c r="D364" s="1"/>
+      <c r="E364" s="1"/>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" s="1"/>
+      <c r="B365" s="1"/>
+      <c r="C365" s="1"/>
+      <c r="D365" s="1"/>
+      <c r="E365" s="1"/>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" s="1"/>
+      <c r="B366" s="1"/>
+      <c r="C366" s="1"/>
+      <c r="D366" s="1"/>
+      <c r="E366" s="1"/>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" s="1"/>
+      <c r="B367" s="1"/>
+      <c r="C367" s="1"/>
+      <c r="D367" s="1"/>
+      <c r="E367" s="1"/>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" s="1"/>
+      <c r="B368" s="1"/>
+      <c r="C368" s="1"/>
+      <c r="D368" s="1"/>
+      <c r="E368" s="1"/>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" s="1"/>
+      <c r="B369" s="1"/>
+      <c r="C369" s="1"/>
+      <c r="D369" s="1"/>
+      <c r="E369" s="1"/>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" s="1"/>
+      <c r="B370" s="1"/>
+      <c r="C370" s="1"/>
+      <c r="D370" s="1"/>
+      <c r="E370" s="1"/>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" s="1"/>
+      <c r="B371" s="1"/>
+      <c r="C371" s="1"/>
+      <c r="D371" s="1"/>
+      <c r="E371" s="1"/>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" s="1"/>
+      <c r="B372" s="1"/>
+      <c r="C372" s="1"/>
+      <c r="D372" s="1"/>
+      <c r="E372" s="1"/>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" s="1"/>
+      <c r="B373" s="1"/>
+      <c r="C373" s="1"/>
+      <c r="D373" s="1"/>
+      <c r="E373" s="1"/>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" s="1"/>
+      <c r="B374" s="1"/>
+      <c r="C374" s="1"/>
+      <c r="D374" s="1"/>
+      <c r="E374" s="1"/>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" s="1"/>
+      <c r="B375" s="1"/>
+      <c r="C375" s="1"/>
+      <c r="D375" s="1"/>
+      <c r="E375" s="1"/>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" s="1"/>
+      <c r="B376" s="1"/>
+      <c r="C376" s="1"/>
+      <c r="D376" s="1"/>
+      <c r="E376" s="1"/>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" s="1"/>
+      <c r="B377" s="1"/>
+      <c r="C377" s="1"/>
+      <c r="D377" s="1"/>
+      <c r="E377" s="1"/>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" s="1"/>
+      <c r="B378" s="1"/>
+      <c r="C378" s="1"/>
+      <c r="D378" s="1"/>
+      <c r="E378" s="1"/>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" s="1"/>
+      <c r="B379" s="1"/>
+      <c r="C379" s="1"/>
+      <c r="D379" s="1"/>
+      <c r="E379" s="1"/>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" s="1"/>
+      <c r="B380" s="1"/>
+      <c r="C380" s="1"/>
+      <c r="D380" s="1"/>
+      <c r="E380" s="1"/>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" s="1"/>
+      <c r="B381" s="1"/>
+      <c r="C381" s="1"/>
+      <c r="D381" s="1"/>
+      <c r="E381" s="1"/>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" s="1"/>
+      <c r="B382" s="1"/>
+      <c r="C382" s="1"/>
+      <c r="D382" s="1"/>
+      <c r="E382" s="1"/>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" s="1"/>
+      <c r="B383" s="1"/>
+      <c r="C383" s="1"/>
+      <c r="D383" s="1"/>
+      <c r="E383" s="1"/>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" s="1"/>
+      <c r="B384" s="1"/>
+      <c r="C384" s="1"/>
+      <c r="D384" s="1"/>
+      <c r="E384" s="1"/>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" s="1"/>
+      <c r="B385" s="1"/>
+      <c r="C385" s="1"/>
+      <c r="D385" s="1"/>
+      <c r="E385" s="1"/>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386" s="1"/>
+      <c r="B386" s="1"/>
+      <c r="C386" s="1"/>
+      <c r="D386" s="1"/>
+      <c r="E386" s="1"/>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" s="1"/>
+      <c r="B387" s="1"/>
+      <c r="C387" s="1"/>
+      <c r="D387" s="1"/>
+      <c r="E387" s="1"/>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" s="1"/>
+      <c r="B388" s="1"/>
+      <c r="C388" s="1"/>
+      <c r="D388" s="1"/>
+      <c r="E388" s="1"/>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" s="1"/>
+      <c r="B389" s="1"/>
+      <c r="C389" s="1"/>
+      <c r="D389" s="1"/>
+      <c r="E389" s="1"/>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" s="1"/>
+      <c r="B390" s="1"/>
+      <c r="C390" s="1"/>
+      <c r="D390" s="1"/>
+      <c r="E390" s="1"/>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" s="1"/>
+      <c r="B391" s="1"/>
+      <c r="C391" s="1"/>
+      <c r="D391" s="1"/>
+      <c r="E391" s="1"/>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" s="1"/>
+      <c r="B392" s="1"/>
+      <c r="C392" s="1"/>
+      <c r="D392" s="1"/>
+      <c r="E392" s="1"/>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" s="1"/>
+      <c r="B393" s="1"/>
+      <c r="C393" s="1"/>
+      <c r="D393" s="1"/>
+      <c r="E393" s="1"/>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" s="1"/>
+      <c r="B394" s="1"/>
+      <c r="C394" s="1"/>
+      <c r="D394" s="1"/>
+      <c r="E394" s="1"/>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" s="1"/>
+      <c r="B395" s="1"/>
+      <c r="C395" s="1"/>
+      <c r="D395" s="1"/>
+      <c r="E395" s="1"/>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" s="1"/>
+      <c r="B396" s="1"/>
+      <c r="C396" s="1"/>
+      <c r="D396" s="1"/>
+      <c r="E396" s="1"/>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" s="1"/>
+      <c r="B397" s="1"/>
+      <c r="C397" s="1"/>
+      <c r="D397" s="1"/>
+      <c r="E397" s="1"/>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" s="1"/>
+      <c r="B398" s="1"/>
+      <c r="C398" s="1"/>
+      <c r="D398" s="1"/>
+      <c r="E398" s="1"/>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" s="1"/>
+      <c r="B399" s="1"/>
+      <c r="C399" s="1"/>
+      <c r="D399" s="1"/>
+      <c r="E399" s="1"/>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" s="1"/>
+      <c r="B400" s="1"/>
+      <c r="C400" s="1"/>
+      <c r="D400" s="1"/>
+      <c r="E400" s="1"/>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" s="1"/>
+      <c r="B401" s="1"/>
+      <c r="C401" s="1"/>
+      <c r="D401" s="1"/>
+      <c r="E401" s="1"/>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" s="1"/>
+      <c r="B402" s="1"/>
+      <c r="C402" s="1"/>
+      <c r="D402" s="1"/>
+      <c r="E402" s="1"/>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" s="1"/>
+      <c r="B403" s="1"/>
+      <c r="C403" s="1"/>
+      <c r="D403" s="1"/>
+      <c r="E403" s="1"/>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" s="1"/>
+      <c r="B404" s="1"/>
+      <c r="C404" s="1"/>
+      <c r="D404" s="1"/>
+      <c r="E404" s="1"/>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405" s="1"/>
+      <c r="B405" s="1"/>
+      <c r="C405" s="1"/>
+      <c r="D405" s="1"/>
+      <c r="E405" s="1"/>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" s="1"/>
+      <c r="B406" s="1"/>
+      <c r="C406" s="1"/>
+      <c r="D406" s="1"/>
+      <c r="E406" s="1"/>
+    </row>
+    <row r="407" spans="1:5">
+      <c r="A407" s="1"/>
+      <c r="B407" s="1"/>
+      <c r="C407" s="1"/>
+      <c r="D407" s="1"/>
+      <c r="E407" s="1"/>
+    </row>
+    <row r="408" spans="1:5">
+      <c r="A408" s="1"/>
+      <c r="B408" s="1"/>
+      <c r="C408" s="1"/>
+      <c r="D408" s="1"/>
+      <c r="E408" s="1"/>
+    </row>
+    <row r="409" spans="1:5">
+      <c r="A409" s="1"/>
+      <c r="B409" s="1"/>
+      <c r="C409" s="1"/>
+      <c r="D409" s="1"/>
+      <c r="E409" s="1"/>
+    </row>
+    <row r="410" spans="1:5">
+      <c r="A410" s="1"/>
+      <c r="B410" s="1"/>
+      <c r="C410" s="1"/>
+      <c r="D410" s="1"/>
+      <c r="E410" s="1"/>
+    </row>
+    <row r="411" spans="1:5">
+      <c r="A411" s="1"/>
+      <c r="B411" s="1"/>
+      <c r="C411" s="1"/>
+      <c r="D411" s="1"/>
+      <c r="E411" s="1"/>
+    </row>
+    <row r="412" spans="1:5">
+      <c r="A412" s="1"/>
+      <c r="B412" s="1"/>
+      <c r="C412" s="1"/>
+      <c r="D412" s="1"/>
+      <c r="E412" s="1"/>
+    </row>
+    <row r="413" spans="1:5">
+      <c r="A413" s="1"/>
+      <c r="B413" s="1"/>
+      <c r="C413" s="1"/>
+      <c r="D413" s="1"/>
+      <c r="E413" s="1"/>
+    </row>
+    <row r="414" spans="1:5">
+      <c r="A414" s="1"/>
+      <c r="B414" s="1"/>
+      <c r="C414" s="1"/>
+      <c r="D414" s="1"/>
+      <c r="E414" s="1"/>
+    </row>
+    <row r="415" spans="1:5">
+      <c r="A415" s="1"/>
+      <c r="B415" s="1"/>
+      <c r="C415" s="1"/>
+      <c r="D415" s="1"/>
+      <c r="E415" s="1"/>
+    </row>
+    <row r="416" spans="1:5">
+      <c r="A416" s="1"/>
+      <c r="B416" s="1"/>
+      <c r="C416" s="1"/>
+      <c r="D416" s="1"/>
+      <c r="E416" s="1"/>
+    </row>
+    <row r="417" spans="1:5">
+      <c r="A417" s="1"/>
+      <c r="B417" s="1"/>
+      <c r="C417" s="1"/>
+      <c r="D417" s="1"/>
+      <c r="E417" s="1"/>
+    </row>
+    <row r="418" spans="1:5">
+      <c r="A418" s="1"/>
+      <c r="B418" s="1"/>
+      <c r="C418" s="1"/>
+      <c r="D418" s="1"/>
+      <c r="E418" s="1"/>
+    </row>
+    <row r="419" spans="1:5">
+      <c r="A419" s="1"/>
+      <c r="B419" s="1"/>
+      <c r="C419" s="1"/>
+      <c r="D419" s="1"/>
+      <c r="E419" s="1"/>
+    </row>
+    <row r="420" spans="1:5">
+      <c r="A420" s="1"/>
+      <c r="B420" s="1"/>
+      <c r="C420" s="1"/>
+      <c r="D420" s="1"/>
+      <c r="E420" s="1"/>
+    </row>
+    <row r="421" spans="1:5">
+      <c r="A421" s="1"/>
+      <c r="B421" s="1"/>
+      <c r="C421" s="1"/>
+      <c r="D421" s="1"/>
+      <c r="E421" s="1"/>
+    </row>
+    <row r="422" spans="1:5">
+      <c r="A422" s="1"/>
+      <c r="B422" s="1"/>
+      <c r="C422" s="1"/>
+      <c r="D422" s="1"/>
+      <c r="E422" s="1"/>
+    </row>
+    <row r="423" spans="1:5">
+      <c r="A423" s="1"/>
+      <c r="B423" s="1"/>
+      <c r="C423" s="1"/>
+      <c r="D423" s="1"/>
+      <c r="E423" s="1"/>
+    </row>
+    <row r="424" spans="1:5">
+      <c r="A424" s="1"/>
+      <c r="B424" s="1"/>
+      <c r="C424" s="1"/>
+      <c r="D424" s="1"/>
+      <c r="E424" s="1"/>
+    </row>
+    <row r="425" spans="1:5">
+      <c r="A425" s="1"/>
+      <c r="B425" s="1"/>
+      <c r="C425" s="1"/>
+      <c r="D425" s="1"/>
+      <c r="E425" s="1"/>
+    </row>
+    <row r="426" spans="1:5">
+      <c r="A426" s="1"/>
+      <c r="B426" s="1"/>
+      <c r="C426" s="1"/>
+      <c r="D426" s="1"/>
+      <c r="E426" s="1"/>
+    </row>
+    <row r="427" spans="1:5">
+      <c r="A427" s="1"/>
+      <c r="B427" s="1"/>
+      <c r="C427" s="1"/>
+      <c r="D427" s="1"/>
+      <c r="E427" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
